--- a/Hardware/BoM/BoM.xlsx
+++ b/Hardware/BoM/BoM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\DipTrace\Projects\Hanimandl\BoM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE4C68D-5ECD-460F-95CA-436226C64E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE02C6D-A290-48C8-898B-2387F124A9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{05CB965E-E129-4BBE-90B2-313F0F04A582}"/>
+    <workbookView xWindow="33525" yWindow="930" windowWidth="17280" windowHeight="9255" xr2:uid="{05CB965E-E129-4BBE-90B2-313F0F04A582}"/>
   </bookViews>
   <sheets>
     <sheet name="BoM" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="87">
   <si>
     <t>#</t>
   </si>
@@ -230,9 +230,6 @@
     <t>https://de.aliexpress.com/item/4000832671813.html?spm=a2g0o.order_list.order_list_main.17.21ef5c5fY1LeFR&amp;gatewayAdapt=glo2deu</t>
   </si>
   <si>
-    <t>TFT Display 2.4 Zoll 320x240</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -294,6 +291,12 @@
   </si>
   <si>
     <t>Servo 20Kg</t>
+  </si>
+  <si>
+    <t>TFT Display 2.8 Zoll 320x240</t>
+  </si>
+  <si>
+    <t>Ein gutes 5V Netzteil</t>
   </si>
 </sst>
 </file>
@@ -366,7 +369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -389,10 +392,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -408,7 +414,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -704,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C404FE5A-7733-4A34-8E7F-E3366CE9635F}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="7.44140625" customWidth="1"/>
@@ -915,34 +921,34 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
         <v>66</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1194,7 +1200,7 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1279,7 +1285,7 @@
         <v>17</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1385,10 +1391,10 @@
         <v>17</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>61</v>
@@ -1408,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>17</v>
@@ -1417,7 +1423,7 @@
         <v>17</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K28" s="8"/>
     </row>
@@ -1429,7 +1435,7 @@
         <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1440,7 +1446,7 @@
       <c r="J29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1452,7 +1458,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>17</v>
@@ -1473,12 +1479,12 @@
         <v>17</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C32" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -1489,7 +1495,7 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1513,7 +1519,7 @@
         <v>17</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -1524,7 +1530,7 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1548,12 +1554,12 @@
         <v>17</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="B37" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -1564,7 +1570,7 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1588,7 +1594,7 @@
         <v>17</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -1599,7 +1605,7 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1623,12 +1629,12 @@
         <v>17</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -1636,7 +1642,7 @@
         <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1660,15 +1666,57 @@
         <v>17</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="B46" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="10"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>27</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="K27:K28"/>
     <mergeCell ref="K23:K25"/>
+    <mergeCell ref="B46:C46"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K29" r:id="rId1" xr:uid="{060FE6A9-0786-4B91-9577-5D35B825ACBE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>